--- a/قرن/قرن.xlsx
+++ b/قرن/قرن.xlsx
@@ -202,9 +202,6 @@
     <t>99/01/11</t>
   </si>
   <si>
-    <t>سیو سود به دلیل نزدیکی شاخص کل به مقاومت</t>
-  </si>
-  <si>
     <t>middle</t>
   </si>
   <si>
@@ -231,6 +228,9 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>متعادل شدن صف</t>
   </si>
 </sst>
 </file>
@@ -1060,68 +1060,248 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="9" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="9" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="9" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="9" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="3" fillId="9" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="3" fillId="9" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="3" fillId="9" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="9" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="9" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="9" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="29" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="30" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="32" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="33" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="28" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1135,12 +1315,6 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1160,18 +1334,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1183,169 +1345,55 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="29" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="30" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="32" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="33" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="28" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="9" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1354,16 +1402,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1372,42 +1426,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1420,34 +1438,40 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="3" fillId="9" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="1" applyBorder="1" applyAlignment="1">
@@ -1456,6 +1480,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1468,34 +1495,7 @@
     <xf numFmtId="10" fontId="2" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1520,26 +1520,32 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
+      <sheetName val="پرتفوی"/>
+      <sheetName val="واچ لیست"/>
+      <sheetName val="سرمایه"/>
+      <sheetName val="بازدهی ماهانه"/>
+      <sheetName val="واریز و برداشت"/>
       <sheetName val="مدیریت سرمایه"/>
-      <sheetName val="محاسبه مدیریت سرمایه"/>
-      <sheetName val="پرتفوی"/>
-      <sheetName val="تحلیل"/>
-      <sheetName val="تاریخچه خرید"/>
-      <sheetName val="تاریخچه فروش"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="5">
-          <cell r="B5">
-            <v>1466894651</v>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2">
+        <row r="4">
+          <cell r="F4">
+            <v>675806374</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
+      <sheetData sheetId="5">
+        <row r="5">
+          <cell r="B5">
+            <v>121194319.56012256</v>
+          </cell>
+        </row>
+      </sheetData>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1836,7 +1842,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M6" sqref="M6"/>
+      <selection pane="bottomLeft" activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1856,38 +1862,38 @@
   <sheetData>
     <row r="1" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:19" ht="19.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="43" t="s">
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="44"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="36" t="s">
+      <c r="L2" s="37"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="O2" s="37" t="s">
+      <c r="O2" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="P2" s="39" t="s">
+      <c r="P2" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="Q2" s="37" t="s">
+      <c r="Q2" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="R2" s="34" t="s">
+      <c r="R2" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="S2" s="38" t="s">
+      <c r="S2" s="30" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1928,104 +1934,114 @@
       <c r="M3" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="N3" s="36"/>
-      <c r="O3" s="37"/>
-      <c r="P3" s="39"/>
-      <c r="Q3" s="37"/>
-      <c r="R3" s="34"/>
-      <c r="S3" s="38"/>
+      <c r="N3" s="46"/>
+      <c r="O3" s="47"/>
+      <c r="P3" s="31"/>
+      <c r="Q3" s="47"/>
+      <c r="R3" s="44"/>
+      <c r="S3" s="30"/>
     </row>
     <row r="4" spans="2:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="40" t="str">
+      <c r="B4" s="32" t="str">
         <f>IF(L4&gt;0, C4/L4,"RF")</f>
         <v>RF</v>
       </c>
-      <c r="C4" s="32">
+      <c r="C4" s="33">
         <f>(D4/Q4)-1</f>
         <v>-1</v>
       </c>
-      <c r="D4" s="41">
+      <c r="D4" s="34">
         <v>0</v>
       </c>
-      <c r="E4" s="40" t="str">
+      <c r="E4" s="32" t="str">
         <f>IF(L4&gt;0, F4/L4,"RF")</f>
         <v>RF</v>
       </c>
-      <c r="F4" s="32">
+      <c r="F4" s="33">
         <f>(G4/Q4)-1</f>
         <v>-1</v>
       </c>
-      <c r="G4" s="41">
+      <c r="G4" s="34">
         <v>0</v>
       </c>
-      <c r="H4" s="40" t="str">
+      <c r="H4" s="32" t="str">
         <f>IF(L4&gt;0, I4/L4,"RF")</f>
         <v>RF</v>
       </c>
-      <c r="I4" s="32">
+      <c r="I4" s="33">
         <f>(J4/Q4)-1</f>
         <v>-1</v>
       </c>
-      <c r="J4" s="41">
+      <c r="J4" s="34">
         <v>0</v>
       </c>
-      <c r="K4" s="46">
+      <c r="K4" s="39">
         <f>IF(L4&gt;0, N4-M4*R4, 0)</f>
         <v>0</v>
       </c>
-      <c r="L4" s="47">
+      <c r="L4" s="40">
         <f>IF(1-(M4/Q4)&gt;0, 1-(M4/Q4), 0)</f>
         <v>0</v>
       </c>
-      <c r="M4" s="42">
+      <c r="M4" s="35">
         <v>17246</v>
       </c>
-      <c r="N4" s="31">
+      <c r="N4" s="49">
         <f>R4*Q4</f>
-        <v>1155482</v>
-      </c>
-      <c r="O4" s="32" t="str">
+        <v>0</v>
+      </c>
+      <c r="O4" s="33" t="str">
         <f>IF( (Q4-M4)*R4/P4&gt;0, (Q4-M4)*R4/P4, "Risk free")</f>
         <v>Risk free</v>
       </c>
-      <c r="P4" s="33">
-        <f>'[1]مدیریت سرمایه'!$B$5</f>
-        <v>1466894651</v>
-      </c>
-      <c r="Q4" s="33">
-        <f>(SUM('تاریخچه خرید'!M4:M17)-SUMPRODUCT('تاریخچه فروش'!G4:G7*'تاریخچه فروش'!F4:F7))/R4</f>
-        <v>17246</v>
-      </c>
-      <c r="R4" s="35">
+      <c r="P4" s="50">
+        <f>[1]سرمایه!$F$4</f>
+        <v>675806374</v>
+      </c>
+      <c r="Q4" s="50">
+        <f>IF(R4 &gt;0, (SUM('تاریخچه خرید'!M4:M17)-SUMPRODUCT('تاریخچه فروش'!G4:G7*'تاریخچه فروش'!F4:F7))/R4, 1)</f>
+        <v>1</v>
+      </c>
+      <c r="R4" s="45">
         <f>SUM('تاریخچه خرید'!Q4:Q17)-SUM('تاریخچه فروش'!G4:G11)</f>
-        <v>67</v>
-      </c>
-      <c r="S4" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="S4" s="48" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="5" spans="2:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="40"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="32"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="46"/>
-      <c r="L5" s="47"/>
-      <c r="M5" s="42"/>
-      <c r="N5" s="31"/>
-      <c r="O5" s="32"/>
-      <c r="P5" s="33"/>
-      <c r="Q5" s="33"/>
-      <c r="R5" s="35"/>
-      <c r="S5" s="30"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="39"/>
+      <c r="L5" s="40"/>
+      <c r="M5" s="35"/>
+      <c r="N5" s="49"/>
+      <c r="O5" s="33"/>
+      <c r="P5" s="50"/>
+      <c r="Q5" s="50"/>
+      <c r="R5" s="45"/>
+      <c r="S5" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="Q2:Q3"/>
     <mergeCell ref="S2:S3"/>
     <mergeCell ref="P2:P3"/>
     <mergeCell ref="B4:B5"/>
@@ -2042,16 +2058,6 @@
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="L4:L5"/>
     <mergeCell ref="B2:J2"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
@@ -2085,43 +2091,43 @@
   <sheetData>
     <row r="1" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:20" ht="18.600000000000001" x14ac:dyDescent="0.3">
-      <c r="B2" s="124" t="s">
+      <c r="B2" s="60" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="125"/>
-      <c r="D2" s="51" t="s">
+      <c r="C2" s="61"/>
+      <c r="D2" s="111" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="61" t="s">
+      <c r="E2" s="119" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="62"/>
-      <c r="G2" s="59" t="s">
+      <c r="F2" s="120"/>
+      <c r="G2" s="117" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="60"/>
-      <c r="I2" s="55" t="s">
+      <c r="H2" s="118"/>
+      <c r="I2" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="56"/>
-      <c r="K2" s="68" t="s">
+      <c r="J2" s="67"/>
+      <c r="K2" s="122" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="69"/>
-      <c r="M2" s="55" t="s">
+      <c r="L2" s="123"/>
+      <c r="M2" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="N2" s="56"/>
-      <c r="O2" s="48" t="s">
+      <c r="N2" s="67"/>
+      <c r="O2" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="P2" s="49"/>
-      <c r="Q2" s="50"/>
-      <c r="R2" s="55" t="s">
+      <c r="P2" s="42"/>
+      <c r="Q2" s="43"/>
+      <c r="R2" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="S2" s="56"/>
-      <c r="T2" s="51" t="s">
+      <c r="S2" s="67"/>
+      <c r="T2" s="111" t="s">
         <v>0</v>
       </c>
     </row>
@@ -2132,7 +2138,7 @@
       <c r="C3" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="D3" s="52"/>
+      <c r="D3" s="112"/>
       <c r="E3" s="2" t="s">
         <v>12</v>
       </c>
@@ -2178,387 +2184,387 @@
       <c r="S3" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="T3" s="63"/>
+      <c r="T3" s="121"/>
     </row>
     <row r="4" spans="1:20" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="22"/>
-      <c r="B4" s="75" t="s">
-        <v>69</v>
-      </c>
-      <c r="C4" s="90" t="s">
+      <c r="B4" s="82" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="105" t="s">
         <v>52</v>
       </c>
-      <c r="D4" s="92" t="s">
+      <c r="D4" s="106" t="s">
         <v>42</v>
       </c>
-      <c r="E4" s="93" t="s">
+      <c r="E4" s="107" t="s">
+        <v>60</v>
+      </c>
+      <c r="F4" s="58" t="s">
+        <v>55</v>
+      </c>
+      <c r="G4" s="68" t="s">
         <v>61</v>
       </c>
-      <c r="F4" s="74" t="s">
-        <v>55</v>
-      </c>
-      <c r="G4" s="84" t="s">
+      <c r="H4" s="108" t="s">
         <v>62</v>
       </c>
-      <c r="H4" s="95" t="s">
+      <c r="I4" s="92" t="s">
+        <v>42</v>
+      </c>
+      <c r="J4" s="56" t="s">
+        <v>42</v>
+      </c>
+      <c r="K4" s="124" t="s">
         <v>63</v>
       </c>
-      <c r="I4" s="80" t="s">
+      <c r="L4" s="125">
+        <v>4869</v>
+      </c>
+      <c r="M4" s="115" t="s">
         <v>42</v>
       </c>
-      <c r="J4" s="82" t="s">
+      <c r="N4" s="58" t="s">
         <v>42</v>
       </c>
-      <c r="K4" s="70" t="s">
+      <c r="O4" s="82" t="s">
+        <v>42</v>
+      </c>
+      <c r="P4" s="72" t="s">
         <v>64</v>
       </c>
-      <c r="L4" s="72">
-        <v>4869</v>
-      </c>
-      <c r="M4" s="57" t="s">
-        <v>42</v>
-      </c>
-      <c r="N4" s="74" t="s">
-        <v>42</v>
-      </c>
-      <c r="O4" s="75" t="s">
-        <v>42</v>
-      </c>
-      <c r="P4" s="64" t="s">
+      <c r="Q4" s="74" t="s">
+        <v>57</v>
+      </c>
+      <c r="R4" s="68" t="s">
         <v>65</v>
       </c>
-      <c r="Q4" s="66" t="s">
-        <v>57</v>
-      </c>
-      <c r="R4" s="84" t="s">
+      <c r="S4" s="113" t="s">
         <v>66</v>
       </c>
-      <c r="S4" s="53" t="s">
+      <c r="T4" s="80" t="s">
         <v>67</v>
-      </c>
-      <c r="T4" s="88" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22"/>
-      <c r="B5" s="71"/>
-      <c r="C5" s="91"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="94"/>
-      <c r="F5" s="73"/>
-      <c r="G5" s="85"/>
-      <c r="H5" s="96"/>
-      <c r="I5" s="81"/>
-      <c r="J5" s="83"/>
-      <c r="K5" s="71"/>
-      <c r="L5" s="73"/>
-      <c r="M5" s="58"/>
-      <c r="N5" s="73"/>
-      <c r="O5" s="71"/>
-      <c r="P5" s="65"/>
-      <c r="Q5" s="67"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="54"/>
-      <c r="T5" s="89"/>
+      <c r="B5" s="83"/>
+      <c r="C5" s="103"/>
+      <c r="D5" s="93"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="69"/>
+      <c r="H5" s="109"/>
+      <c r="I5" s="93"/>
+      <c r="J5" s="57"/>
+      <c r="K5" s="83"/>
+      <c r="L5" s="59"/>
+      <c r="M5" s="116"/>
+      <c r="N5" s="59"/>
+      <c r="O5" s="83"/>
+      <c r="P5" s="73"/>
+      <c r="Q5" s="75"/>
+      <c r="R5" s="69"/>
+      <c r="S5" s="114"/>
+      <c r="T5" s="90"/>
     </row>
     <row r="6" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="22"/>
-      <c r="B6" s="100" t="s">
+      <c r="B6" s="86" t="s">
         <v>53</v>
       </c>
-      <c r="C6" s="106" t="s">
+      <c r="C6" s="100" t="s">
         <v>58</v>
       </c>
-      <c r="D6" s="108" t="s">
+      <c r="D6" s="96" t="s">
         <v>42</v>
       </c>
-      <c r="E6" s="100" t="s">
+      <c r="E6" s="86" t="s">
         <v>56</v>
       </c>
-      <c r="F6" s="76" t="s">
+      <c r="F6" s="88" t="s">
         <v>55</v>
       </c>
-      <c r="G6" s="86"/>
-      <c r="H6" s="78" t="s">
+      <c r="G6" s="70"/>
+      <c r="H6" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="I6" s="114" t="s">
+      <c r="I6" s="94" t="s">
         <v>42</v>
       </c>
-      <c r="J6" s="76" t="s">
+      <c r="J6" s="88" t="s">
         <v>42</v>
       </c>
-      <c r="K6" s="116" t="s">
+      <c r="K6" s="104" t="s">
         <v>42</v>
       </c>
-      <c r="L6" s="99">
+      <c r="L6" s="110">
         <v>39429</v>
       </c>
-      <c r="M6" s="118"/>
-      <c r="N6" s="78" t="s">
+      <c r="M6" s="62"/>
+      <c r="N6" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="O6" s="100" t="s">
+      <c r="O6" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="P6" s="122" t="s">
+      <c r="P6" s="78" t="s">
         <v>54</v>
       </c>
-      <c r="Q6" s="110" t="s">
+      <c r="Q6" s="76" t="s">
         <v>57</v>
       </c>
-      <c r="R6" s="86" t="s">
+      <c r="R6" s="70" t="s">
         <v>46</v>
       </c>
-      <c r="S6" s="104" t="s">
+      <c r="S6" s="98" t="s">
         <v>45</v>
       </c>
-      <c r="T6" s="97" t="s">
+      <c r="T6" s="84" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="22"/>
-      <c r="B7" s="101"/>
-      <c r="C7" s="107"/>
-      <c r="D7" s="109"/>
-      <c r="E7" s="101"/>
-      <c r="F7" s="77"/>
-      <c r="G7" s="87"/>
-      <c r="H7" s="79"/>
-      <c r="I7" s="115"/>
-      <c r="J7" s="77"/>
-      <c r="K7" s="101"/>
-      <c r="L7" s="77"/>
-      <c r="M7" s="119"/>
-      <c r="N7" s="79"/>
-      <c r="O7" s="101"/>
-      <c r="P7" s="123"/>
-      <c r="Q7" s="111"/>
-      <c r="R7" s="87"/>
-      <c r="S7" s="105"/>
-      <c r="T7" s="98"/>
+      <c r="B7" s="87"/>
+      <c r="C7" s="101"/>
+      <c r="D7" s="97"/>
+      <c r="E7" s="87"/>
+      <c r="F7" s="89"/>
+      <c r="G7" s="71"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="95"/>
+      <c r="J7" s="89"/>
+      <c r="K7" s="87"/>
+      <c r="L7" s="89"/>
+      <c r="M7" s="63"/>
+      <c r="N7" s="52"/>
+      <c r="O7" s="87"/>
+      <c r="P7" s="79"/>
+      <c r="Q7" s="77"/>
+      <c r="R7" s="71"/>
+      <c r="S7" s="99"/>
+      <c r="T7" s="85"/>
     </row>
     <row r="8" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="22"/>
-      <c r="B8" s="75"/>
-      <c r="C8" s="113"/>
-      <c r="D8" s="80"/>
-      <c r="E8" s="75"/>
-      <c r="F8" s="74"/>
-      <c r="G8" s="112"/>
-      <c r="H8" s="102"/>
-      <c r="I8" s="82"/>
-      <c r="J8" s="74"/>
-      <c r="K8" s="75"/>
-      <c r="L8" s="74"/>
-      <c r="M8" s="112"/>
-      <c r="N8" s="102"/>
-      <c r="O8" s="75"/>
-      <c r="P8" s="64"/>
-      <c r="Q8" s="66"/>
-      <c r="R8" s="112"/>
-      <c r="S8" s="102"/>
-      <c r="T8" s="88"/>
+      <c r="B8" s="82"/>
+      <c r="C8" s="102"/>
+      <c r="D8" s="92"/>
+      <c r="E8" s="82"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="64"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="56"/>
+      <c r="J8" s="58"/>
+      <c r="K8" s="82"/>
+      <c r="L8" s="58"/>
+      <c r="M8" s="64"/>
+      <c r="N8" s="53"/>
+      <c r="O8" s="82"/>
+      <c r="P8" s="72"/>
+      <c r="Q8" s="74"/>
+      <c r="R8" s="64"/>
+      <c r="S8" s="53"/>
+      <c r="T8" s="80"/>
     </row>
     <row r="9" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="22"/>
-      <c r="B9" s="71"/>
-      <c r="C9" s="91"/>
-      <c r="D9" s="81"/>
-      <c r="E9" s="71"/>
-      <c r="F9" s="73"/>
-      <c r="G9" s="94"/>
-      <c r="H9" s="103"/>
-      <c r="I9" s="83"/>
-      <c r="J9" s="73"/>
-      <c r="K9" s="71"/>
-      <c r="L9" s="73"/>
-      <c r="M9" s="94"/>
-      <c r="N9" s="103"/>
-      <c r="O9" s="71"/>
-      <c r="P9" s="65"/>
-      <c r="Q9" s="67"/>
-      <c r="R9" s="94"/>
-      <c r="S9" s="103"/>
-      <c r="T9" s="89"/>
+      <c r="B9" s="83"/>
+      <c r="C9" s="103"/>
+      <c r="D9" s="93"/>
+      <c r="E9" s="83"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="65"/>
+      <c r="H9" s="55"/>
+      <c r="I9" s="57"/>
+      <c r="J9" s="59"/>
+      <c r="K9" s="83"/>
+      <c r="L9" s="59"/>
+      <c r="M9" s="65"/>
+      <c r="N9" s="55"/>
+      <c r="O9" s="83"/>
+      <c r="P9" s="73"/>
+      <c r="Q9" s="75"/>
+      <c r="R9" s="65"/>
+      <c r="S9" s="55"/>
+      <c r="T9" s="90"/>
     </row>
     <row r="10" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="22"/>
-      <c r="B10" s="100"/>
-      <c r="C10" s="76"/>
-      <c r="D10" s="108"/>
-      <c r="E10" s="100"/>
-      <c r="F10" s="76"/>
-      <c r="G10" s="118"/>
-      <c r="H10" s="78"/>
-      <c r="I10" s="114"/>
-      <c r="J10" s="76"/>
-      <c r="K10" s="100"/>
-      <c r="L10" s="76"/>
-      <c r="M10" s="118"/>
-      <c r="N10" s="78"/>
-      <c r="O10" s="100"/>
-      <c r="P10" s="122"/>
-      <c r="Q10" s="110"/>
-      <c r="R10" s="118"/>
-      <c r="S10" s="78"/>
-      <c r="T10" s="97"/>
+      <c r="B10" s="86"/>
+      <c r="C10" s="88"/>
+      <c r="D10" s="96"/>
+      <c r="E10" s="86"/>
+      <c r="F10" s="88"/>
+      <c r="G10" s="62"/>
+      <c r="H10" s="51"/>
+      <c r="I10" s="94"/>
+      <c r="J10" s="88"/>
+      <c r="K10" s="86"/>
+      <c r="L10" s="88"/>
+      <c r="M10" s="62"/>
+      <c r="N10" s="51"/>
+      <c r="O10" s="86"/>
+      <c r="P10" s="78"/>
+      <c r="Q10" s="76"/>
+      <c r="R10" s="62"/>
+      <c r="S10" s="51"/>
+      <c r="T10" s="84"/>
     </row>
     <row r="11" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="22"/>
-      <c r="B11" s="101"/>
-      <c r="C11" s="77"/>
-      <c r="D11" s="109"/>
-      <c r="E11" s="101"/>
-      <c r="F11" s="77"/>
-      <c r="G11" s="119"/>
-      <c r="H11" s="79"/>
-      <c r="I11" s="115"/>
-      <c r="J11" s="77"/>
-      <c r="K11" s="101"/>
-      <c r="L11" s="77"/>
-      <c r="M11" s="119"/>
-      <c r="N11" s="79"/>
-      <c r="O11" s="101"/>
-      <c r="P11" s="123"/>
-      <c r="Q11" s="111"/>
-      <c r="R11" s="119"/>
-      <c r="S11" s="79"/>
-      <c r="T11" s="98"/>
+      <c r="B11" s="87"/>
+      <c r="C11" s="89"/>
+      <c r="D11" s="97"/>
+      <c r="E11" s="87"/>
+      <c r="F11" s="89"/>
+      <c r="G11" s="63"/>
+      <c r="H11" s="52"/>
+      <c r="I11" s="95"/>
+      <c r="J11" s="89"/>
+      <c r="K11" s="87"/>
+      <c r="L11" s="89"/>
+      <c r="M11" s="63"/>
+      <c r="N11" s="52"/>
+      <c r="O11" s="87"/>
+      <c r="P11" s="79"/>
+      <c r="Q11" s="77"/>
+      <c r="R11" s="63"/>
+      <c r="S11" s="52"/>
+      <c r="T11" s="85"/>
     </row>
     <row r="12" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="22"/>
-      <c r="B12" s="75"/>
-      <c r="C12" s="117"/>
-      <c r="D12" s="80"/>
-      <c r="E12" s="75"/>
-      <c r="F12" s="74"/>
-      <c r="G12" s="112"/>
-      <c r="H12" s="102"/>
-      <c r="I12" s="82"/>
-      <c r="J12" s="74"/>
-      <c r="K12" s="75"/>
-      <c r="L12" s="74"/>
-      <c r="M12" s="112"/>
-      <c r="N12" s="102"/>
-      <c r="O12" s="75"/>
-      <c r="P12" s="64"/>
-      <c r="Q12" s="66"/>
-      <c r="R12" s="112"/>
-      <c r="S12" s="102"/>
-      <c r="T12" s="88"/>
+      <c r="B12" s="82"/>
+      <c r="C12" s="91"/>
+      <c r="D12" s="92"/>
+      <c r="E12" s="82"/>
+      <c r="F12" s="58"/>
+      <c r="G12" s="64"/>
+      <c r="H12" s="53"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="58"/>
+      <c r="K12" s="82"/>
+      <c r="L12" s="58"/>
+      <c r="M12" s="64"/>
+      <c r="N12" s="53"/>
+      <c r="O12" s="82"/>
+      <c r="P12" s="72"/>
+      <c r="Q12" s="74"/>
+      <c r="R12" s="64"/>
+      <c r="S12" s="53"/>
+      <c r="T12" s="80"/>
     </row>
     <row r="13" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="22"/>
-      <c r="B13" s="71"/>
-      <c r="C13" s="73"/>
-      <c r="D13" s="81"/>
-      <c r="E13" s="71"/>
-      <c r="F13" s="73"/>
-      <c r="G13" s="94"/>
-      <c r="H13" s="103"/>
-      <c r="I13" s="83"/>
-      <c r="J13" s="73"/>
-      <c r="K13" s="71"/>
-      <c r="L13" s="73"/>
-      <c r="M13" s="94"/>
-      <c r="N13" s="103"/>
-      <c r="O13" s="71"/>
-      <c r="P13" s="65"/>
-      <c r="Q13" s="67"/>
-      <c r="R13" s="94"/>
-      <c r="S13" s="103"/>
-      <c r="T13" s="89"/>
+      <c r="B13" s="83"/>
+      <c r="C13" s="59"/>
+      <c r="D13" s="93"/>
+      <c r="E13" s="83"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="65"/>
+      <c r="H13" s="55"/>
+      <c r="I13" s="57"/>
+      <c r="J13" s="59"/>
+      <c r="K13" s="83"/>
+      <c r="L13" s="59"/>
+      <c r="M13" s="65"/>
+      <c r="N13" s="55"/>
+      <c r="O13" s="83"/>
+      <c r="P13" s="73"/>
+      <c r="Q13" s="75"/>
+      <c r="R13" s="65"/>
+      <c r="S13" s="55"/>
+      <c r="T13" s="90"/>
     </row>
     <row r="14" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="22"/>
-      <c r="B14" s="100"/>
-      <c r="C14" s="76"/>
-      <c r="D14" s="108"/>
-      <c r="E14" s="100"/>
-      <c r="F14" s="76"/>
-      <c r="G14" s="118"/>
-      <c r="H14" s="78"/>
-      <c r="I14" s="114"/>
-      <c r="J14" s="76"/>
-      <c r="K14" s="100"/>
-      <c r="L14" s="76"/>
-      <c r="M14" s="118"/>
-      <c r="N14" s="78"/>
-      <c r="O14" s="100"/>
-      <c r="P14" s="122"/>
-      <c r="Q14" s="110"/>
-      <c r="R14" s="118"/>
-      <c r="S14" s="78"/>
-      <c r="T14" s="97"/>
+      <c r="B14" s="86"/>
+      <c r="C14" s="88"/>
+      <c r="D14" s="96"/>
+      <c r="E14" s="86"/>
+      <c r="F14" s="88"/>
+      <c r="G14" s="62"/>
+      <c r="H14" s="51"/>
+      <c r="I14" s="94"/>
+      <c r="J14" s="88"/>
+      <c r="K14" s="86"/>
+      <c r="L14" s="88"/>
+      <c r="M14" s="62"/>
+      <c r="N14" s="51"/>
+      <c r="O14" s="86"/>
+      <c r="P14" s="78"/>
+      <c r="Q14" s="76"/>
+      <c r="R14" s="62"/>
+      <c r="S14" s="51"/>
+      <c r="T14" s="84"/>
     </row>
     <row r="15" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="22"/>
-      <c r="B15" s="101"/>
-      <c r="C15" s="77"/>
-      <c r="D15" s="109"/>
-      <c r="E15" s="101"/>
-      <c r="F15" s="77"/>
-      <c r="G15" s="119"/>
-      <c r="H15" s="79"/>
-      <c r="I15" s="115"/>
-      <c r="J15" s="77"/>
-      <c r="K15" s="101"/>
-      <c r="L15" s="77"/>
-      <c r="M15" s="119"/>
-      <c r="N15" s="79"/>
-      <c r="O15" s="101"/>
-      <c r="P15" s="123"/>
-      <c r="Q15" s="111"/>
-      <c r="R15" s="119"/>
-      <c r="S15" s="79"/>
-      <c r="T15" s="98"/>
+      <c r="B15" s="87"/>
+      <c r="C15" s="89"/>
+      <c r="D15" s="97"/>
+      <c r="E15" s="87"/>
+      <c r="F15" s="89"/>
+      <c r="G15" s="63"/>
+      <c r="H15" s="52"/>
+      <c r="I15" s="95"/>
+      <c r="J15" s="89"/>
+      <c r="K15" s="87"/>
+      <c r="L15" s="89"/>
+      <c r="M15" s="63"/>
+      <c r="N15" s="52"/>
+      <c r="O15" s="87"/>
+      <c r="P15" s="79"/>
+      <c r="Q15" s="77"/>
+      <c r="R15" s="63"/>
+      <c r="S15" s="52"/>
+      <c r="T15" s="85"/>
     </row>
     <row r="16" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="22"/>
-      <c r="B16" s="75"/>
-      <c r="C16" s="117"/>
-      <c r="D16" s="80"/>
-      <c r="E16" s="75"/>
-      <c r="F16" s="74"/>
-      <c r="G16" s="112"/>
-      <c r="H16" s="102"/>
-      <c r="I16" s="82"/>
-      <c r="J16" s="74"/>
-      <c r="K16" s="75"/>
-      <c r="L16" s="74"/>
-      <c r="M16" s="112"/>
-      <c r="N16" s="102"/>
-      <c r="O16" s="75"/>
-      <c r="P16" s="64"/>
-      <c r="Q16" s="66"/>
-      <c r="R16" s="112"/>
-      <c r="S16" s="102"/>
-      <c r="T16" s="88"/>
+      <c r="B16" s="82"/>
+      <c r="C16" s="91"/>
+      <c r="D16" s="92"/>
+      <c r="E16" s="82"/>
+      <c r="F16" s="58"/>
+      <c r="G16" s="64"/>
+      <c r="H16" s="53"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="58"/>
+      <c r="K16" s="82"/>
+      <c r="L16" s="58"/>
+      <c r="M16" s="64"/>
+      <c r="N16" s="53"/>
+      <c r="O16" s="82"/>
+      <c r="P16" s="72"/>
+      <c r="Q16" s="74"/>
+      <c r="R16" s="64"/>
+      <c r="S16" s="53"/>
+      <c r="T16" s="80"/>
     </row>
     <row r="17" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="22"/>
-      <c r="B17" s="71"/>
-      <c r="C17" s="73"/>
-      <c r="D17" s="81"/>
-      <c r="E17" s="71"/>
-      <c r="F17" s="73"/>
-      <c r="G17" s="94"/>
-      <c r="H17" s="120"/>
-      <c r="I17" s="83"/>
-      <c r="J17" s="73"/>
-      <c r="K17" s="71"/>
-      <c r="L17" s="73"/>
-      <c r="M17" s="94"/>
-      <c r="N17" s="120"/>
-      <c r="O17" s="71"/>
-      <c r="P17" s="65"/>
-      <c r="Q17" s="67"/>
-      <c r="R17" s="94"/>
-      <c r="S17" s="120"/>
-      <c r="T17" s="121"/>
+      <c r="B17" s="83"/>
+      <c r="C17" s="59"/>
+      <c r="D17" s="93"/>
+      <c r="E17" s="83"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="65"/>
+      <c r="H17" s="54"/>
+      <c r="I17" s="57"/>
+      <c r="J17" s="59"/>
+      <c r="K17" s="83"/>
+      <c r="L17" s="59"/>
+      <c r="M17" s="65"/>
+      <c r="N17" s="54"/>
+      <c r="O17" s="83"/>
+      <c r="P17" s="73"/>
+      <c r="Q17" s="75"/>
+      <c r="R17" s="65"/>
+      <c r="S17" s="54"/>
+      <c r="T17" s="81"/>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A18" s="22"/>
@@ -2590,6 +2596,125 @@
     </row>
   </sheetData>
   <mergeCells count="143">
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="T4:T5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="T6:T7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="Q8:Q9"/>
+    <mergeCell ref="T8:T9"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="S6:S7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="S8:S9"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="T10:T11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="N10:N11"/>
+    <mergeCell ref="O10:O11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="S10:S11"/>
+    <mergeCell ref="S12:S13"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="T16:T17"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="N16:N17"/>
+    <mergeCell ref="O16:O17"/>
+    <mergeCell ref="P14:P15"/>
+    <mergeCell ref="Q14:Q15"/>
+    <mergeCell ref="T14:T15"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="N14:N15"/>
+    <mergeCell ref="O14:O15"/>
+    <mergeCell ref="P12:P13"/>
+    <mergeCell ref="Q12:Q13"/>
+    <mergeCell ref="T12:T13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="O12:O13"/>
+    <mergeCell ref="P10:P11"/>
     <mergeCell ref="S14:S15"/>
     <mergeCell ref="S16:S17"/>
     <mergeCell ref="N12:N13"/>
@@ -2614,125 +2739,6 @@
     <mergeCell ref="Q16:Q17"/>
     <mergeCell ref="Q10:Q11"/>
     <mergeCell ref="P6:P7"/>
-    <mergeCell ref="T16:T17"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="N16:N17"/>
-    <mergeCell ref="O16:O17"/>
-    <mergeCell ref="P14:P15"/>
-    <mergeCell ref="Q14:Q15"/>
-    <mergeCell ref="T14:T15"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="N14:N15"/>
-    <mergeCell ref="O14:O15"/>
-    <mergeCell ref="P12:P13"/>
-    <mergeCell ref="Q12:Q13"/>
-    <mergeCell ref="T12:T13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="O12:O13"/>
-    <mergeCell ref="P10:P11"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="T10:T11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="N10:N11"/>
-    <mergeCell ref="O10:O11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="S10:S11"/>
-    <mergeCell ref="S12:S13"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="Q8:Q9"/>
-    <mergeCell ref="T8:T9"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="S6:S7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="S8:S9"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="T4:T5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="T6:T7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="O2:Q2"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="R6:R7" r:id="rId1" display="tech_990112.png"/>
@@ -2771,41 +2777,41 @@
   <sheetData>
     <row r="1" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:20" ht="19.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="61" t="s">
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="119" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="62"/>
-      <c r="M2" s="36" t="s">
+      <c r="L2" s="120"/>
+      <c r="M2" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="N2" s="37" t="s">
+      <c r="N2" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="O2" s="39" t="s">
+      <c r="O2" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="P2" s="37" t="s">
+      <c r="P2" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="Q2" s="34" t="s">
+      <c r="Q2" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="R2" s="55" t="s">
+      <c r="R2" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="S2" s="56"/>
-      <c r="T2" s="159" t="s">
+      <c r="S2" s="67"/>
+      <c r="T2" s="126" t="s">
         <v>0</v>
       </c>
     </row>
@@ -2843,360 +2849,360 @@
       <c r="L3" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="M3" s="36"/>
-      <c r="N3" s="37"/>
-      <c r="O3" s="39"/>
-      <c r="P3" s="37"/>
-      <c r="Q3" s="34"/>
+      <c r="M3" s="46"/>
+      <c r="N3" s="47"/>
+      <c r="O3" s="31"/>
+      <c r="P3" s="47"/>
+      <c r="Q3" s="44"/>
       <c r="R3" s="19" t="s">
         <v>35</v>
       </c>
       <c r="S3" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="T3" s="159"/>
+      <c r="T3" s="126"/>
     </row>
     <row r="4" spans="2:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="40" t="str">
+      <c r="B4" s="32" t="str">
         <f>IF(K4&gt;0, C4/K4,"RF")</f>
         <v>RF</v>
       </c>
-      <c r="C4" s="32">
+      <c r="C4" s="33">
         <f>(D4/P4)-1</f>
         <v>-1</v>
       </c>
-      <c r="D4" s="41">
+      <c r="D4" s="34">
         <v>0</v>
       </c>
-      <c r="E4" s="40" t="str">
+      <c r="E4" s="32" t="str">
         <f>IF(K4&gt;0, F4/K4,"RF")</f>
         <v>RF</v>
       </c>
-      <c r="F4" s="32">
+      <c r="F4" s="33">
         <f>(G4/P4)-1</f>
         <v>-1</v>
       </c>
-      <c r="G4" s="41">
+      <c r="G4" s="34">
         <v>0</v>
       </c>
-      <c r="H4" s="40" t="str">
+      <c r="H4" s="32" t="str">
         <f>IF(K4&gt;0, I4/K4,"RF")</f>
         <v>RF</v>
       </c>
-      <c r="I4" s="32">
+      <c r="I4" s="33">
         <f>(J4/P4)-1</f>
         <v>-1</v>
       </c>
-      <c r="J4" s="41">
+      <c r="J4" s="34">
         <v>0</v>
       </c>
-      <c r="K4" s="150">
+      <c r="K4" s="131">
         <f>IF(1-(L4/P4)&gt;0, 1-(L4/P4), 0)</f>
         <v>0</v>
       </c>
-      <c r="L4" s="42">
+      <c r="L4" s="35">
         <v>17246</v>
       </c>
-      <c r="M4" s="31">
+      <c r="M4" s="49">
         <f>P4*Q4</f>
         <v>1155482</v>
       </c>
-      <c r="N4" s="32" t="str">
+      <c r="N4" s="33" t="str">
         <f>IF( (P4-L4)*Q4/O4&gt;0, (P4-L4)*Q4/O4, "Risk free")</f>
         <v>Risk free</v>
       </c>
-      <c r="O4" s="33">
+      <c r="O4" s="50">
         <f>'[1]مدیریت سرمایه'!$B$5</f>
-        <v>1466894651</v>
-      </c>
-      <c r="P4" s="157">
+        <v>121194319.56012256</v>
+      </c>
+      <c r="P4" s="127">
         <v>17246</v>
       </c>
-      <c r="Q4" s="151">
+      <c r="Q4" s="128">
         <v>67</v>
       </c>
-      <c r="R4" s="84" t="s">
-        <v>66</v>
-      </c>
-      <c r="S4" s="95" t="s">
+      <c r="R4" s="68" t="s">
+        <v>65</v>
+      </c>
+      <c r="S4" s="108" t="s">
         <v>43</v>
       </c>
-      <c r="T4" s="30" t="s">
-        <v>68</v>
+      <c r="T4" s="48" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="2:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="40"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="32"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="150"/>
-      <c r="L5" s="42"/>
-      <c r="M5" s="31"/>
-      <c r="N5" s="32"/>
-      <c r="O5" s="33"/>
-      <c r="P5" s="157"/>
-      <c r="Q5" s="151"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="96"/>
-      <c r="T5" s="30"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="131"/>
+      <c r="L5" s="35"/>
+      <c r="M5" s="49"/>
+      <c r="N5" s="33"/>
+      <c r="O5" s="50"/>
+      <c r="P5" s="127"/>
+      <c r="Q5" s="128"/>
+      <c r="R5" s="69"/>
+      <c r="S5" s="109"/>
+      <c r="T5" s="48"/>
     </row>
     <row r="6" spans="2:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="158"/>
-      <c r="C6" s="156"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="158"/>
-      <c r="F6" s="156"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="158"/>
-      <c r="I6" s="156"/>
-      <c r="J6" s="41"/>
-      <c r="K6" s="154"/>
-      <c r="L6" s="42"/>
-      <c r="M6" s="155"/>
-      <c r="N6" s="156"/>
-      <c r="O6" s="157"/>
-      <c r="P6" s="157"/>
-      <c r="Q6" s="151"/>
-      <c r="R6" s="152"/>
-      <c r="S6" s="95"/>
-      <c r="T6" s="30"/>
+      <c r="B6" s="129"/>
+      <c r="C6" s="130"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="129"/>
+      <c r="F6" s="130"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="129"/>
+      <c r="I6" s="130"/>
+      <c r="J6" s="34"/>
+      <c r="K6" s="140"/>
+      <c r="L6" s="35"/>
+      <c r="M6" s="141"/>
+      <c r="N6" s="130"/>
+      <c r="O6" s="127"/>
+      <c r="P6" s="127"/>
+      <c r="Q6" s="128"/>
+      <c r="R6" s="132"/>
+      <c r="S6" s="108"/>
+      <c r="T6" s="48"/>
     </row>
     <row r="7" spans="2:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="158"/>
-      <c r="C7" s="156"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="158"/>
-      <c r="F7" s="156"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="158"/>
-      <c r="I7" s="156"/>
-      <c r="J7" s="41"/>
-      <c r="K7" s="154"/>
-      <c r="L7" s="42"/>
-      <c r="M7" s="155"/>
-      <c r="N7" s="156"/>
-      <c r="O7" s="157"/>
-      <c r="P7" s="157"/>
-      <c r="Q7" s="151"/>
-      <c r="R7" s="153"/>
-      <c r="S7" s="96"/>
-      <c r="T7" s="30"/>
+      <c r="B7" s="129"/>
+      <c r="C7" s="130"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="129"/>
+      <c r="F7" s="130"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="129"/>
+      <c r="I7" s="130"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="140"/>
+      <c r="L7" s="35"/>
+      <c r="M7" s="141"/>
+      <c r="N7" s="130"/>
+      <c r="O7" s="127"/>
+      <c r="P7" s="127"/>
+      <c r="Q7" s="128"/>
+      <c r="R7" s="133"/>
+      <c r="S7" s="109"/>
+      <c r="T7" s="48"/>
     </row>
     <row r="8" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="136"/>
-      <c r="C8" s="128"/>
-      <c r="D8" s="130"/>
-      <c r="E8" s="136"/>
-      <c r="F8" s="128"/>
-      <c r="G8" s="130"/>
-      <c r="H8" s="136"/>
-      <c r="I8" s="128"/>
-      <c r="J8" s="130"/>
-      <c r="K8" s="136"/>
-      <c r="L8" s="130"/>
-      <c r="M8" s="136"/>
-      <c r="N8" s="128"/>
-      <c r="O8" s="128"/>
-      <c r="P8" s="128"/>
-      <c r="Q8" s="130"/>
-      <c r="R8" s="132"/>
-      <c r="S8" s="102"/>
-      <c r="T8" s="126"/>
+      <c r="B8" s="134"/>
+      <c r="C8" s="136"/>
+      <c r="D8" s="138"/>
+      <c r="E8" s="134"/>
+      <c r="F8" s="136"/>
+      <c r="G8" s="138"/>
+      <c r="H8" s="134"/>
+      <c r="I8" s="136"/>
+      <c r="J8" s="138"/>
+      <c r="K8" s="134"/>
+      <c r="L8" s="138"/>
+      <c r="M8" s="134"/>
+      <c r="N8" s="136"/>
+      <c r="O8" s="136"/>
+      <c r="P8" s="136"/>
+      <c r="Q8" s="138"/>
+      <c r="R8" s="150"/>
+      <c r="S8" s="53"/>
+      <c r="T8" s="142"/>
     </row>
     <row r="9" spans="2:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="137"/>
-      <c r="C9" s="129"/>
-      <c r="D9" s="131"/>
-      <c r="E9" s="137"/>
-      <c r="F9" s="129"/>
-      <c r="G9" s="131"/>
-      <c r="H9" s="137"/>
-      <c r="I9" s="129"/>
-      <c r="J9" s="131"/>
-      <c r="K9" s="137"/>
-      <c r="L9" s="131"/>
-      <c r="M9" s="137"/>
-      <c r="N9" s="129"/>
-      <c r="O9" s="129"/>
-      <c r="P9" s="129"/>
-      <c r="Q9" s="131"/>
-      <c r="R9" s="133"/>
-      <c r="S9" s="103"/>
-      <c r="T9" s="127"/>
+      <c r="B9" s="135"/>
+      <c r="C9" s="137"/>
+      <c r="D9" s="139"/>
+      <c r="E9" s="135"/>
+      <c r="F9" s="137"/>
+      <c r="G9" s="139"/>
+      <c r="H9" s="135"/>
+      <c r="I9" s="137"/>
+      <c r="J9" s="139"/>
+      <c r="K9" s="135"/>
+      <c r="L9" s="139"/>
+      <c r="M9" s="135"/>
+      <c r="N9" s="137"/>
+      <c r="O9" s="137"/>
+      <c r="P9" s="137"/>
+      <c r="Q9" s="139"/>
+      <c r="R9" s="151"/>
+      <c r="S9" s="55"/>
+      <c r="T9" s="143"/>
     </row>
     <row r="10" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="138"/>
-      <c r="C10" s="140"/>
-      <c r="D10" s="142"/>
-      <c r="E10" s="138"/>
-      <c r="F10" s="140"/>
-      <c r="G10" s="142"/>
-      <c r="H10" s="138"/>
-      <c r="I10" s="140"/>
-      <c r="J10" s="142"/>
-      <c r="K10" s="138"/>
-      <c r="L10" s="142"/>
-      <c r="M10" s="138"/>
-      <c r="N10" s="140"/>
-      <c r="O10" s="140"/>
-      <c r="P10" s="140"/>
-      <c r="Q10" s="142"/>
-      <c r="R10" s="148"/>
-      <c r="S10" s="144"/>
-      <c r="T10" s="146"/>
+      <c r="B10" s="144"/>
+      <c r="C10" s="146"/>
+      <c r="D10" s="148"/>
+      <c r="E10" s="144"/>
+      <c r="F10" s="146"/>
+      <c r="G10" s="148"/>
+      <c r="H10" s="144"/>
+      <c r="I10" s="146"/>
+      <c r="J10" s="148"/>
+      <c r="K10" s="144"/>
+      <c r="L10" s="148"/>
+      <c r="M10" s="144"/>
+      <c r="N10" s="146"/>
+      <c r="O10" s="146"/>
+      <c r="P10" s="146"/>
+      <c r="Q10" s="148"/>
+      <c r="R10" s="154"/>
+      <c r="S10" s="156"/>
+      <c r="T10" s="152"/>
     </row>
     <row r="11" spans="2:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="139"/>
-      <c r="C11" s="141"/>
-      <c r="D11" s="143"/>
-      <c r="E11" s="139"/>
-      <c r="F11" s="141"/>
-      <c r="G11" s="143"/>
-      <c r="H11" s="139"/>
-      <c r="I11" s="141"/>
-      <c r="J11" s="143"/>
-      <c r="K11" s="139"/>
-      <c r="L11" s="143"/>
-      <c r="M11" s="139"/>
-      <c r="N11" s="141"/>
-      <c r="O11" s="141"/>
-      <c r="P11" s="141"/>
-      <c r="Q11" s="143"/>
-      <c r="R11" s="149"/>
-      <c r="S11" s="145"/>
-      <c r="T11" s="147"/>
+      <c r="B11" s="145"/>
+      <c r="C11" s="147"/>
+      <c r="D11" s="149"/>
+      <c r="E11" s="145"/>
+      <c r="F11" s="147"/>
+      <c r="G11" s="149"/>
+      <c r="H11" s="145"/>
+      <c r="I11" s="147"/>
+      <c r="J11" s="149"/>
+      <c r="K11" s="145"/>
+      <c r="L11" s="149"/>
+      <c r="M11" s="145"/>
+      <c r="N11" s="147"/>
+      <c r="O11" s="147"/>
+      <c r="P11" s="147"/>
+      <c r="Q11" s="149"/>
+      <c r="R11" s="155"/>
+      <c r="S11" s="157"/>
+      <c r="T11" s="153"/>
     </row>
     <row r="12" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="136"/>
-      <c r="C12" s="128"/>
-      <c r="D12" s="130"/>
-      <c r="E12" s="136"/>
-      <c r="F12" s="128"/>
-      <c r="G12" s="130"/>
-      <c r="H12" s="136"/>
-      <c r="I12" s="128"/>
-      <c r="J12" s="130"/>
-      <c r="K12" s="136"/>
-      <c r="L12" s="130"/>
-      <c r="M12" s="136"/>
-      <c r="N12" s="128"/>
-      <c r="O12" s="128"/>
-      <c r="P12" s="128"/>
-      <c r="Q12" s="130"/>
-      <c r="R12" s="132"/>
-      <c r="S12" s="134"/>
-      <c r="T12" s="126"/>
+      <c r="B12" s="134"/>
+      <c r="C12" s="136"/>
+      <c r="D12" s="138"/>
+      <c r="E12" s="134"/>
+      <c r="F12" s="136"/>
+      <c r="G12" s="138"/>
+      <c r="H12" s="134"/>
+      <c r="I12" s="136"/>
+      <c r="J12" s="138"/>
+      <c r="K12" s="134"/>
+      <c r="L12" s="138"/>
+      <c r="M12" s="134"/>
+      <c r="N12" s="136"/>
+      <c r="O12" s="136"/>
+      <c r="P12" s="136"/>
+      <c r="Q12" s="138"/>
+      <c r="R12" s="150"/>
+      <c r="S12" s="158"/>
+      <c r="T12" s="142"/>
     </row>
     <row r="13" spans="2:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="137"/>
-      <c r="C13" s="129"/>
-      <c r="D13" s="131"/>
-      <c r="E13" s="137"/>
-      <c r="F13" s="129"/>
-      <c r="G13" s="131"/>
-      <c r="H13" s="137"/>
-      <c r="I13" s="129"/>
-      <c r="J13" s="131"/>
-      <c r="K13" s="137"/>
-      <c r="L13" s="131"/>
-      <c r="M13" s="137"/>
-      <c r="N13" s="129"/>
-      <c r="O13" s="129"/>
-      <c r="P13" s="129"/>
-      <c r="Q13" s="131"/>
-      <c r="R13" s="133"/>
-      <c r="S13" s="135"/>
-      <c r="T13" s="127"/>
+      <c r="B13" s="135"/>
+      <c r="C13" s="137"/>
+      <c r="D13" s="139"/>
+      <c r="E13" s="135"/>
+      <c r="F13" s="137"/>
+      <c r="G13" s="139"/>
+      <c r="H13" s="135"/>
+      <c r="I13" s="137"/>
+      <c r="J13" s="139"/>
+      <c r="K13" s="135"/>
+      <c r="L13" s="139"/>
+      <c r="M13" s="135"/>
+      <c r="N13" s="137"/>
+      <c r="O13" s="137"/>
+      <c r="P13" s="137"/>
+      <c r="Q13" s="139"/>
+      <c r="R13" s="151"/>
+      <c r="S13" s="159"/>
+      <c r="T13" s="143"/>
     </row>
     <row r="14" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="138"/>
-      <c r="C14" s="140"/>
-      <c r="D14" s="142"/>
-      <c r="E14" s="138"/>
-      <c r="F14" s="140"/>
-      <c r="G14" s="142"/>
-      <c r="H14" s="138"/>
-      <c r="I14" s="140"/>
-      <c r="J14" s="142"/>
-      <c r="K14" s="138"/>
-      <c r="L14" s="142"/>
-      <c r="M14" s="138"/>
-      <c r="N14" s="140"/>
-      <c r="O14" s="140"/>
-      <c r="P14" s="140"/>
-      <c r="Q14" s="142"/>
-      <c r="R14" s="148"/>
-      <c r="S14" s="144"/>
-      <c r="T14" s="146"/>
+      <c r="B14" s="144"/>
+      <c r="C14" s="146"/>
+      <c r="D14" s="148"/>
+      <c r="E14" s="144"/>
+      <c r="F14" s="146"/>
+      <c r="G14" s="148"/>
+      <c r="H14" s="144"/>
+      <c r="I14" s="146"/>
+      <c r="J14" s="148"/>
+      <c r="K14" s="144"/>
+      <c r="L14" s="148"/>
+      <c r="M14" s="144"/>
+      <c r="N14" s="146"/>
+      <c r="O14" s="146"/>
+      <c r="P14" s="146"/>
+      <c r="Q14" s="148"/>
+      <c r="R14" s="154"/>
+      <c r="S14" s="156"/>
+      <c r="T14" s="152"/>
     </row>
     <row r="15" spans="2:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="139"/>
-      <c r="C15" s="141"/>
-      <c r="D15" s="143"/>
-      <c r="E15" s="139"/>
-      <c r="F15" s="141"/>
-      <c r="G15" s="143"/>
-      <c r="H15" s="139"/>
-      <c r="I15" s="141"/>
-      <c r="J15" s="143"/>
-      <c r="K15" s="139"/>
-      <c r="L15" s="143"/>
-      <c r="M15" s="139"/>
-      <c r="N15" s="141"/>
-      <c r="O15" s="141"/>
-      <c r="P15" s="141"/>
-      <c r="Q15" s="143"/>
-      <c r="R15" s="149"/>
-      <c r="S15" s="145"/>
-      <c r="T15" s="147"/>
+      <c r="B15" s="145"/>
+      <c r="C15" s="147"/>
+      <c r="D15" s="149"/>
+      <c r="E15" s="145"/>
+      <c r="F15" s="147"/>
+      <c r="G15" s="149"/>
+      <c r="H15" s="145"/>
+      <c r="I15" s="147"/>
+      <c r="J15" s="149"/>
+      <c r="K15" s="145"/>
+      <c r="L15" s="149"/>
+      <c r="M15" s="145"/>
+      <c r="N15" s="147"/>
+      <c r="O15" s="147"/>
+      <c r="P15" s="147"/>
+      <c r="Q15" s="149"/>
+      <c r="R15" s="155"/>
+      <c r="S15" s="157"/>
+      <c r="T15" s="153"/>
     </row>
     <row r="16" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="136"/>
-      <c r="C16" s="128"/>
-      <c r="D16" s="130"/>
-      <c r="E16" s="136"/>
-      <c r="F16" s="128"/>
-      <c r="G16" s="130"/>
-      <c r="H16" s="136"/>
-      <c r="I16" s="128"/>
-      <c r="J16" s="130"/>
-      <c r="K16" s="136"/>
-      <c r="L16" s="130"/>
-      <c r="M16" s="136"/>
-      <c r="N16" s="128"/>
-      <c r="O16" s="128"/>
-      <c r="P16" s="128"/>
-      <c r="Q16" s="130"/>
-      <c r="R16" s="132"/>
-      <c r="S16" s="134"/>
-      <c r="T16" s="126"/>
+      <c r="B16" s="134"/>
+      <c r="C16" s="136"/>
+      <c r="D16" s="138"/>
+      <c r="E16" s="134"/>
+      <c r="F16" s="136"/>
+      <c r="G16" s="138"/>
+      <c r="H16" s="134"/>
+      <c r="I16" s="136"/>
+      <c r="J16" s="138"/>
+      <c r="K16" s="134"/>
+      <c r="L16" s="138"/>
+      <c r="M16" s="134"/>
+      <c r="N16" s="136"/>
+      <c r="O16" s="136"/>
+      <c r="P16" s="136"/>
+      <c r="Q16" s="138"/>
+      <c r="R16" s="150"/>
+      <c r="S16" s="158"/>
+      <c r="T16" s="142"/>
     </row>
     <row r="17" spans="2:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="137"/>
-      <c r="C17" s="129"/>
-      <c r="D17" s="131"/>
-      <c r="E17" s="137"/>
-      <c r="F17" s="129"/>
-      <c r="G17" s="131"/>
-      <c r="H17" s="137"/>
-      <c r="I17" s="129"/>
-      <c r="J17" s="131"/>
-      <c r="K17" s="137"/>
-      <c r="L17" s="131"/>
-      <c r="M17" s="137"/>
-      <c r="N17" s="129"/>
-      <c r="O17" s="129"/>
-      <c r="P17" s="129"/>
-      <c r="Q17" s="131"/>
-      <c r="R17" s="133"/>
-      <c r="S17" s="135"/>
-      <c r="T17" s="127"/>
+      <c r="B17" s="135"/>
+      <c r="C17" s="137"/>
+      <c r="D17" s="139"/>
+      <c r="E17" s="135"/>
+      <c r="F17" s="137"/>
+      <c r="G17" s="139"/>
+      <c r="H17" s="135"/>
+      <c r="I17" s="137"/>
+      <c r="J17" s="139"/>
+      <c r="K17" s="135"/>
+      <c r="L17" s="139"/>
+      <c r="M17" s="135"/>
+      <c r="N17" s="137"/>
+      <c r="O17" s="137"/>
+      <c r="P17" s="137"/>
+      <c r="Q17" s="139"/>
+      <c r="R17" s="151"/>
+      <c r="S17" s="159"/>
+      <c r="T17" s="143"/>
     </row>
     <row r="20" spans="2:20" x14ac:dyDescent="0.3">
       <c r="S20" s="26"/>
@@ -3208,6 +3214,124 @@
     </row>
   </sheetData>
   <mergeCells count="142">
+    <mergeCell ref="T16:T17"/>
+    <mergeCell ref="O16:O17"/>
+    <mergeCell ref="P16:P17"/>
+    <mergeCell ref="Q16:Q17"/>
+    <mergeCell ref="R16:R17"/>
+    <mergeCell ref="S16:S17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="M16:M17"/>
+    <mergeCell ref="N16:N17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="N14:N15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="Q12:Q13"/>
+    <mergeCell ref="R12:R13"/>
+    <mergeCell ref="S12:S13"/>
+    <mergeCell ref="T12:T13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="N12:N13"/>
+    <mergeCell ref="O12:O13"/>
+    <mergeCell ref="P12:P13"/>
+    <mergeCell ref="S14:S15"/>
+    <mergeCell ref="T14:T15"/>
+    <mergeCell ref="O14:O15"/>
+    <mergeCell ref="P14:P15"/>
+    <mergeCell ref="Q14:Q15"/>
+    <mergeCell ref="R14:R15"/>
+    <mergeCell ref="R8:R9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="T10:T11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="O10:O11"/>
+    <mergeCell ref="P10:P11"/>
+    <mergeCell ref="Q10:Q11"/>
+    <mergeCell ref="R10:R11"/>
+    <mergeCell ref="S10:S11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="N10:N11"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="R6:R7"/>
+    <mergeCell ref="S6:S7"/>
+    <mergeCell ref="T6:T7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="S8:S9"/>
+    <mergeCell ref="T8:T9"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="Q8:Q9"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:J7"/>
     <mergeCell ref="Q2:Q3"/>
     <mergeCell ref="R2:S2"/>
     <mergeCell ref="T2:T3"/>
@@ -3232,124 +3356,6 @@
     <mergeCell ref="S4:S5"/>
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="J4:J5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="R6:R7"/>
-    <mergeCell ref="S6:S7"/>
-    <mergeCell ref="T6:T7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="P6:P7"/>
-    <mergeCell ref="S8:S9"/>
-    <mergeCell ref="T8:T9"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="Q8:Q9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="M10:M11"/>
-    <mergeCell ref="N10:N11"/>
-    <mergeCell ref="R8:R9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="T10:T11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="O10:O11"/>
-    <mergeCell ref="P10:P11"/>
-    <mergeCell ref="Q10:Q11"/>
-    <mergeCell ref="R10:R11"/>
-    <mergeCell ref="S10:S11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="Q12:Q13"/>
-    <mergeCell ref="R12:R13"/>
-    <mergeCell ref="S12:S13"/>
-    <mergeCell ref="T12:T13"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="M12:M13"/>
-    <mergeCell ref="N12:N13"/>
-    <mergeCell ref="O12:O13"/>
-    <mergeCell ref="P12:P13"/>
-    <mergeCell ref="S14:S15"/>
-    <mergeCell ref="T14:T15"/>
-    <mergeCell ref="O14:O15"/>
-    <mergeCell ref="P14:P15"/>
-    <mergeCell ref="Q14:Q15"/>
-    <mergeCell ref="R14:R15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="N14:N15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="T16:T17"/>
-    <mergeCell ref="O16:O17"/>
-    <mergeCell ref="P16:P17"/>
-    <mergeCell ref="Q16:Q17"/>
-    <mergeCell ref="R16:R17"/>
-    <mergeCell ref="S16:S17"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="M16:M17"/>
-    <mergeCell ref="N16:N17"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="R4:R5" r:id="rId1" display="sig_990108.png"/>
@@ -3365,7 +3371,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G6" sqref="G6:G7"/>
+      <selection pane="bottomLeft" activeCell="E6" sqref="E6:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3383,156 +3389,184 @@
   <sheetData>
     <row r="1" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:10" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="159" t="s">
+      <c r="C2" s="126" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="38" t="s">
+      <c r="D2" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="159" t="s">
+      <c r="E2" s="126" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="169" t="s">
+      <c r="F2" s="161" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="159" t="s">
+      <c r="G2" s="126" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="43" t="s">
+      <c r="H2" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="I2" s="45"/>
-      <c r="J2" s="159" t="s">
+      <c r="I2" s="38"/>
+      <c r="J2" s="126" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="38"/>
-      <c r="C3" s="159"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="159"/>
-      <c r="F3" s="170"/>
-      <c r="G3" s="36"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="126"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="126"/>
+      <c r="F3" s="162"/>
+      <c r="G3" s="46"/>
       <c r="H3" s="24" t="s">
         <v>38</v>
       </c>
       <c r="I3" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="J3" s="159"/>
+      <c r="J3" s="126"/>
     </row>
     <row r="4" spans="2:10" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="164">
+      <c r="B4" s="173">
         <f>D4-(F4*G4)</f>
-        <v>0</v>
-      </c>
-      <c r="C4" s="165">
+        <v>2528647</v>
+      </c>
+      <c r="C4" s="174">
         <f>E4/F4-1</f>
-        <v>0.20505569091541953</v>
-      </c>
-      <c r="D4" s="164">
+        <v>2.1861098239110288</v>
+      </c>
+      <c r="D4" s="173">
         <f>E4*G4</f>
-        <v>0</v>
-      </c>
-      <c r="E4" s="166">
-        <v>55394</v>
-      </c>
-      <c r="F4" s="171">
-        <v>45968</v>
-      </c>
-      <c r="G4" s="167">
-        <v>0</v>
-      </c>
-      <c r="H4" s="160"/>
-      <c r="I4" s="175" t="s">
-        <v>60</v>
-      </c>
-      <c r="J4" s="167" t="s">
+        <v>3685335</v>
+      </c>
+      <c r="E4" s="170">
+        <v>55005</v>
+      </c>
+      <c r="F4" s="163">
+        <v>17264</v>
+      </c>
+      <c r="G4" s="160">
+        <v>67</v>
+      </c>
+      <c r="H4" s="168"/>
+      <c r="I4" s="167" t="s">
+        <v>69</v>
+      </c>
+      <c r="J4" s="160" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="5" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="164"/>
-      <c r="C5" s="165"/>
-      <c r="D5" s="164"/>
-      <c r="E5" s="166"/>
-      <c r="F5" s="172"/>
-      <c r="G5" s="167"/>
-      <c r="H5" s="161"/>
-      <c r="I5" s="175"/>
-      <c r="J5" s="167"/>
+      <c r="B5" s="173"/>
+      <c r="C5" s="174"/>
+      <c r="D5" s="173"/>
+      <c r="E5" s="170"/>
+      <c r="F5" s="164"/>
+      <c r="G5" s="160"/>
+      <c r="H5" s="169"/>
+      <c r="I5" s="167"/>
+      <c r="J5" s="160"/>
     </row>
     <row r="6" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="166"/>
-      <c r="C6" s="168"/>
-      <c r="D6" s="166"/>
-      <c r="E6" s="166"/>
-      <c r="F6" s="171"/>
-      <c r="G6" s="167"/>
-      <c r="H6" s="160"/>
-      <c r="I6" s="175"/>
-      <c r="J6" s="167"/>
+      <c r="B6" s="170"/>
+      <c r="C6" s="175"/>
+      <c r="D6" s="170"/>
+      <c r="E6" s="170"/>
+      <c r="F6" s="163"/>
+      <c r="G6" s="160"/>
+      <c r="H6" s="168"/>
+      <c r="I6" s="167"/>
+      <c r="J6" s="160"/>
     </row>
     <row r="7" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="166"/>
-      <c r="C7" s="168"/>
-      <c r="D7" s="166"/>
-      <c r="E7" s="166"/>
-      <c r="F7" s="172"/>
-      <c r="G7" s="167"/>
-      <c r="H7" s="161"/>
-      <c r="I7" s="175"/>
-      <c r="J7" s="167"/>
+      <c r="B7" s="170"/>
+      <c r="C7" s="175"/>
+      <c r="D7" s="170"/>
+      <c r="E7" s="170"/>
+      <c r="F7" s="164"/>
+      <c r="G7" s="160"/>
+      <c r="H7" s="169"/>
+      <c r="I7" s="167"/>
+      <c r="J7" s="160"/>
     </row>
     <row r="8" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="167"/>
-      <c r="C8" s="167"/>
-      <c r="D8" s="167"/>
-      <c r="E8" s="167"/>
-      <c r="F8" s="173"/>
-      <c r="G8" s="167"/>
-      <c r="H8" s="162"/>
-      <c r="I8" s="175"/>
-      <c r="J8" s="167"/>
+      <c r="B8" s="160"/>
+      <c r="C8" s="160"/>
+      <c r="D8" s="160"/>
+      <c r="E8" s="160"/>
+      <c r="F8" s="165"/>
+      <c r="G8" s="160"/>
+      <c r="H8" s="171"/>
+      <c r="I8" s="167"/>
+      <c r="J8" s="160"/>
     </row>
     <row r="9" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="167"/>
-      <c r="C9" s="167"/>
-      <c r="D9" s="167"/>
-      <c r="E9" s="167"/>
-      <c r="F9" s="174"/>
-      <c r="G9" s="167"/>
-      <c r="H9" s="163"/>
-      <c r="I9" s="175"/>
-      <c r="J9" s="167"/>
+      <c r="B9" s="160"/>
+      <c r="C9" s="160"/>
+      <c r="D9" s="160"/>
+      <c r="E9" s="160"/>
+      <c r="F9" s="166"/>
+      <c r="G9" s="160"/>
+      <c r="H9" s="172"/>
+      <c r="I9" s="167"/>
+      <c r="J9" s="160"/>
     </row>
     <row r="10" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="167"/>
-      <c r="C10" s="167"/>
-      <c r="D10" s="167"/>
-      <c r="E10" s="167"/>
-      <c r="F10" s="173"/>
-      <c r="G10" s="167"/>
-      <c r="H10" s="162"/>
-      <c r="I10" s="175"/>
-      <c r="J10" s="167"/>
+      <c r="B10" s="160"/>
+      <c r="C10" s="160"/>
+      <c r="D10" s="160"/>
+      <c r="E10" s="160"/>
+      <c r="F10" s="165"/>
+      <c r="G10" s="160"/>
+      <c r="H10" s="171"/>
+      <c r="I10" s="167"/>
+      <c r="J10" s="160"/>
     </row>
     <row r="11" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="167"/>
-      <c r="C11" s="167"/>
-      <c r="D11" s="167"/>
-      <c r="E11" s="167"/>
-      <c r="F11" s="174"/>
-      <c r="G11" s="167"/>
-      <c r="H11" s="163"/>
-      <c r="I11" s="175"/>
-      <c r="J11" s="167"/>
+      <c r="B11" s="160"/>
+      <c r="C11" s="160"/>
+      <c r="D11" s="160"/>
+      <c r="E11" s="160"/>
+      <c r="F11" s="166"/>
+      <c r="G11" s="160"/>
+      <c r="H11" s="172"/>
+      <c r="I11" s="167"/>
+      <c r="J11" s="160"/>
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="G10:G11"/>
     <mergeCell ref="J10:J11"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="F4:F5"/>
@@ -3549,34 +3583,6 @@
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="H4:H5"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
